--- a/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/Table21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb153/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb153/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07D7D0A-2007-D540-8977-1DCECC1CF47F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654951E-B158-A249-B313-A3AFAAE2817B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="860" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
   <si>
     <t>Value</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,13 +1199,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D42" s="4">
         <v>11722440</v>
